--- a/Jiro_test/発表資料ベース＆スケ案.xlsx
+++ b/Jiro_test/発表資料ベース＆スケ案.xlsx
@@ -222,6 +222,96 @@
       </rPr>
       <t xml:space="preserve">の導入（そもそもフリーで使える？？）</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">⇒無料で使えるが、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SVN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を導入する用の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SVN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">サーバーなるものが必要？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">で言う所の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のようなものが無い気がする。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -470,7 +560,7 @@
     <numFmt numFmtId="165" formatCode="D\日"/>
     <numFmt numFmtId="166" formatCode="AAA"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -504,6 +594,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
@@ -622,7 +726,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,7 +734,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,13 +760,73 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -794,7 +958,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -812,7 +976,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2728,7 +2892,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
